--- a/output/CodeSystem-SPLASCHPureToneThresholdAudiometryPanelCS.xlsx
+++ b/output/CodeSystem-SPLASCHPureToneThresholdAudiometryPanelCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:05:17-04:00</t>
+    <t>2022-05-04T09:54:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-SPLASCHPureToneThresholdAudiometryPanelCS.xlsx
+++ b/output/CodeSystem-SPLASCHPureToneThresholdAudiometryPanelCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T09:54:10-04:00</t>
+    <t>2022-05-04T12:01:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
